--- a/assignment1/ListWord.xlsx
+++ b/assignment1/ListWord.xlsx
@@ -2,20 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuipied-my.sharepoint.com/personal/thammasat_tho_dome_tu_ac_th/Documents/CN332/CN332-Default/assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D941D1B1-9613-1745-9C37-F2C7619A9AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{D941D1B1-9613-1745-9C37-F2C7619A9AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{787122C0-E429-A548-B2F5-75F7514CC4F2}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17300" xr2:uid="{722068D7-275B-C542-BB87-59CC7BFD0B28}"/>
+    <workbookView xWindow="1100" yWindow="780" windowWidth="28040" windowHeight="17300" xr2:uid="{722068D7-275B-C542-BB87-59CC7BFD0B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="15" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +38,431 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="139">
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>Adjective</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>designed</t>
+  </si>
+  <si>
+    <t>recorded</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>analyze</t>
+  </si>
+  <si>
+    <t>includes</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>authorize</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>including</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>clicking</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>allows</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>harder</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>nearest</t>
+  </si>
+  <si>
+    <t>unexpected</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>drone</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>counting</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>holidays</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>circumstances</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>highways</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>plans</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Count of Adjective</t>
+  </si>
+  <si>
+    <t>Count of Verb</t>
+  </si>
+  <si>
+    <t>Count of Noun</t>
+  </si>
+  <si>
+    <t>List All Word</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +470,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +514,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +582,2004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45303.88787071759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="139" xr:uid="{ED577783-AB7E-F848-9A6C-2246A3ABEA44}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:C1000" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Noun" numFmtId="0">
+      <sharedItems containsBlank="1" count="72">
+        <s v="present"/>
+        <s v="types"/>
+        <s v="cars"/>
+        <s v="road"/>
+        <s v="Monitoring"/>
+        <s v="lot"/>
+        <s v="Today"/>
+        <s v="project"/>
+        <s v="web"/>
+        <s v="application"/>
+        <s v="framework"/>
+        <s v="data"/>
+        <s v="video"/>
+        <s v="drone"/>
+        <s v="camera"/>
+        <s v="view"/>
+        <s v="User"/>
+        <s v="result"/>
+        <s v="type"/>
+        <s v="car"/>
+        <s v="direction"/>
+        <s v="counting"/>
+        <s v="analysis"/>
+        <s v="police"/>
+        <s v="intersection"/>
+        <s v="example"/>
+        <s v="holidays"/>
+        <s v="people"/>
+        <s v="family"/>
+        <s v="number"/>
+        <s v="situation"/>
+        <s v="future"/>
+        <s v="circumstances"/>
+        <s v="account"/>
+        <s v="profile"/>
+        <s v="page"/>
+        <s v="Developers"/>
+        <s v="determine"/>
+        <s v="group"/>
+        <s v="users"/>
+        <s v="highways"/>
+        <s v="difference"/>
+        <s v="accessibility"/>
+        <s v="login"/>
+        <s v="Homepage"/>
+        <s v="date"/>
+        <s v="name"/>
+        <s v="location"/>
+        <s v="status"/>
+        <s v="owner"/>
+        <s v="upload"/>
+        <s v="search"/>
+        <s v="bar"/>
+        <s v="task"/>
+        <s v="detection"/>
+        <s v="file"/>
+        <s v="files"/>
+        <s v="collection"/>
+        <s v="authority"/>
+        <s v="description"/>
+        <s v="loop"/>
+        <s v="plans"/>
+        <s v="functions"/>
+        <s v="notification"/>
+        <s v="process"/>
+        <s v="work"/>
+        <s v="engine"/>
+        <s v="accuracy"/>
+        <s v="function"/>
+        <s v="Django"/>
+        <s v="JSON"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Verb" numFmtId="0">
+      <sharedItems containsBlank="1" count="49">
+        <s v="are"/>
+        <s v="become"/>
+        <s v="going"/>
+        <s v="talk"/>
+        <s v="help"/>
+        <s v="based"/>
+        <s v="designed"/>
+        <s v="recorded"/>
+        <s v="input"/>
+        <s v="received"/>
+        <s v="let"/>
+        <s v="analyze"/>
+        <s v="includes"/>
+        <s v="predict"/>
+        <s v="plan"/>
+        <s v="manage"/>
+        <s v="take"/>
+        <s v="go"/>
+        <s v="visit"/>
+        <s v="detect"/>
+        <s v="count"/>
+        <s v="collect"/>
+        <s v="happen"/>
+        <s v="prevent"/>
+        <s v="authorize"/>
+        <s v="use"/>
+        <s v="register"/>
+        <s v="login"/>
+        <s v="including"/>
+        <s v="has"/>
+        <s v="redirect"/>
+        <s v="homepage"/>
+        <s v="shows"/>
+        <s v="contains"/>
+        <s v="modify"/>
+        <s v="is"/>
+        <s v="find"/>
+        <s v="view"/>
+        <s v="clicking"/>
+        <s v="show"/>
+        <s v="display"/>
+        <s v="allows"/>
+        <s v="export"/>
+        <s v="added"/>
+        <s v="add"/>
+        <s v="develop"/>
+        <s v="update"/>
+        <s v="report"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Adjective" numFmtId="0">
+      <sharedItems containsBlank="1" count="15">
+        <s v="several"/>
+        <s v="harder"/>
+        <s v="easier"/>
+        <s v="detect"/>
+        <s v="top"/>
+        <s v="nearest"/>
+        <s v="unexpected"/>
+        <s v="other"/>
+        <s v="editable"/>
+        <s v="interested"/>
+        <s v="JSON"/>
+        <s v="own"/>
+        <s v="more"/>
+        <s v="such"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="139">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="17"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="18"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="19"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="20"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="21"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="13"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="22"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="15"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="23"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="24"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="25"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="26"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="29"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="30"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="31"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="32"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="33"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="34"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="35"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="36"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="37"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="38"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="39"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="40"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="39"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="41"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="42"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="43"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="44"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="19"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="29"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="45"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="46"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="45"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="39"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="47"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="48"/>
+    <x v="14"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B75C37E0-2A1E-C343-B204-497458A3F342}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="N5:P6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="73">
+        <item x="42"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="58"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="70"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="46"/>
+        <item x="63"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="61"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="39"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="50">
+        <item x="44"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Noun" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Verb" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Adjective" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4B67667-F814-4D48-8D57-36D60A9AB9F3}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="K1:L16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="73">
+        <item x="42"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="58"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="70"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="46"/>
+        <item x="63"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="61"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="39"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="50">
+        <item x="44"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item h="1" x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Adjective" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A55E039D-19CF-B847-8840-91207B73EC0C}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="H1:I50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="73">
+        <item x="42"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="58"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="70"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="46"/>
+        <item x="63"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="61"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="39"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="50">
+        <item x="44"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item h="1" x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="49">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Verb" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB74C30F-8590-6E4B-B43E-2107187265E9}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="E1:F73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="73">
+        <item x="42"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="58"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="70"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="46"/>
+        <item x="63"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="61"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="39"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item h="1" x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="50">
+        <item x="44"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="72">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Noun" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +2899,2058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B821DA1C-6FBF-C04A-9D46-F53257E59F13}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="34" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="7" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="7" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="9" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="7" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="12" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="13" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="7" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9" bestFit="1" customWidth="1"/>
+    <col min="213" max="214" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="217" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="222" max="223" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="13" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="9" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="10" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="11" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="7" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="9" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="7" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="289" max="290" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>138</v>
+      </c>
+      <c r="O6" s="4">
+        <v>58</v>
+      </c>
+      <c r="P6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assignment1/ListWord.xlsx
+++ b/assignment1/ListWord.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuipied-my.sharepoint.com/personal/thammasat_tho_dome_tu_ac_th/Documents/CN332/CN332-Default/assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{D941D1B1-9613-1745-9C37-F2C7619A9AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{787122C0-E429-A548-B2F5-75F7514CC4F2}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{D941D1B1-9613-1745-9C37-F2C7619A9AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470A8571-A063-AA43-A5B9-0D17552CF317}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="780" windowWidth="28040" windowHeight="17300" xr2:uid="{722068D7-275B-C542-BB87-59CC7BFD0B28}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{722068D7-275B-C542-BB87-59CC7BFD0B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -527,12 +527,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,38 +539,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1448,7 +1416,728 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B75C37E0-2A1E-C343-B204-497458A3F342}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A55E039D-19CF-B847-8840-91207B73EC0C}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="H1:I50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="73">
+        <item x="42"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="58"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="70"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="46"/>
+        <item x="63"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="61"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="39"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="50">
+        <item x="44"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item h="1" x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="49">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Verb" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB74C30F-8590-6E4B-B43E-2107187265E9}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="E1:F73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="73">
+        <item x="42"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="58"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="54"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="70"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="46"/>
+        <item x="63"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="61"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="39"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="65"/>
+        <item h="1" x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="50">
+        <item x="44"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="72">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Noun" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B75C37E0-2A1E-C343-B204-497458A3F342}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="N5:P6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField dataField="1" compact="0" outline="0" showAll="0">
@@ -1637,8 +2326,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4B67667-F814-4D48-8D57-36D60A9AB9F3}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4B67667-F814-4D48-8D57-36D60A9AB9F3}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K1:L16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField compact="0" outline="0" showAll="0">
@@ -1848,727 +2537,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Adjective" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A55E039D-19CF-B847-8840-91207B73EC0C}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="H1:I50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="73">
-        <item x="42"/>
-        <item x="33"/>
-        <item x="67"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="58"/>
-        <item x="52"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="32"/>
-        <item x="57"/>
-        <item x="21"/>
-        <item x="11"/>
-        <item x="45"/>
-        <item x="59"/>
-        <item x="54"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="20"/>
-        <item x="69"/>
-        <item x="13"/>
-        <item x="66"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="10"/>
-        <item x="68"/>
-        <item x="62"/>
-        <item x="31"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="26"/>
-        <item x="44"/>
-        <item x="24"/>
-        <item x="70"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="60"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="46"/>
-        <item x="63"/>
-        <item x="29"/>
-        <item x="49"/>
-        <item x="35"/>
-        <item x="27"/>
-        <item x="61"/>
-        <item x="23"/>
-        <item x="0"/>
-        <item x="64"/>
-        <item x="34"/>
-        <item x="7"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="51"/>
-        <item x="30"/>
-        <item x="48"/>
-        <item x="53"/>
-        <item x="6"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="16"/>
-        <item x="39"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="8"/>
-        <item x="65"/>
-        <item x="71"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="50">
-        <item x="44"/>
-        <item x="43"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="38"/>
-        <item x="21"/>
-        <item x="33"/>
-        <item x="20"/>
-        <item x="6"/>
-        <item x="19"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="36"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="12"/>
-        <item x="28"/>
-        <item x="8"/>
-        <item x="35"/>
-        <item x="10"/>
-        <item x="27"/>
-        <item x="15"/>
-        <item x="34"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="47"/>
-        <item x="39"/>
-        <item x="32"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="37"/>
-        <item x="18"/>
-        <item h="1" x="48"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="16">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="49">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Verb" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB74C30F-8590-6E4B-B43E-2107187265E9}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="E1:F73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="73">
-        <item x="42"/>
-        <item x="33"/>
-        <item x="67"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="58"/>
-        <item x="52"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="32"/>
-        <item x="57"/>
-        <item x="21"/>
-        <item x="11"/>
-        <item x="45"/>
-        <item x="59"/>
-        <item x="54"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="20"/>
-        <item x="69"/>
-        <item x="13"/>
-        <item x="66"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="10"/>
-        <item x="68"/>
-        <item x="62"/>
-        <item x="31"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="26"/>
-        <item x="44"/>
-        <item x="24"/>
-        <item x="70"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="60"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="46"/>
-        <item x="63"/>
-        <item x="29"/>
-        <item x="49"/>
-        <item x="35"/>
-        <item x="27"/>
-        <item x="61"/>
-        <item x="23"/>
-        <item x="0"/>
-        <item x="64"/>
-        <item x="34"/>
-        <item x="7"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="51"/>
-        <item x="30"/>
-        <item x="48"/>
-        <item x="53"/>
-        <item x="6"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="16"/>
-        <item x="39"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="8"/>
-        <item x="65"/>
-        <item h="1" x="71"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="50">
-        <item x="44"/>
-        <item x="43"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="38"/>
-        <item x="21"/>
-        <item x="33"/>
-        <item x="20"/>
-        <item x="6"/>
-        <item x="19"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="36"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="12"/>
-        <item x="28"/>
-        <item x="8"/>
-        <item x="35"/>
-        <item x="10"/>
-        <item x="27"/>
-        <item x="15"/>
-        <item x="34"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="47"/>
-        <item x="39"/>
-        <item x="32"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="37"/>
-        <item x="18"/>
-        <item x="48"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="16">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="72">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Noun" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2902,8 +2870,8 @@
   <dimension ref="A1:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3168,11 +3136,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3205,19 +3173,19 @@
       <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
@@ -3234,19 +3202,19 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
@@ -3263,19 +3231,19 @@
       <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
@@ -3292,19 +3260,19 @@
       <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
@@ -3330,28 +3298,28 @@
       <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>138</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>58</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>15</v>
       </c>
     </row>
@@ -3368,19 +3336,19 @@
       <c r="E7" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
@@ -3397,19 +3365,19 @@
       <c r="E8" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>2</v>
       </c>
     </row>
@@ -3426,19 +3394,19 @@
       <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
@@ -3455,19 +3423,19 @@
       <c r="E10" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
@@ -3484,19 +3452,19 @@
       <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
@@ -3513,19 +3481,19 @@
       <c r="E12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
@@ -3542,19 +3510,19 @@
       <c r="E13" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>1</v>
       </c>
     </row>
@@ -3571,19 +3539,19 @@
       <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>1</v>
       </c>
     </row>
@@ -3600,19 +3568,19 @@
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>1</v>
       </c>
     </row>
@@ -3629,19 +3597,19 @@
       <c r="E16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>15</v>
       </c>
     </row>
@@ -3658,13 +3626,13 @@
       <c r="E17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
@@ -3678,13 +3646,13 @@
       <c r="E18" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
@@ -3698,13 +3666,13 @@
       <c r="E19" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19">
         <v>1</v>
       </c>
     </row>
@@ -3718,13 +3686,13 @@
       <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <v>1</v>
       </c>
     </row>
@@ -3738,13 +3706,13 @@
       <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21">
         <v>1</v>
       </c>
     </row>
@@ -3758,13 +3726,13 @@
       <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <v>1</v>
       </c>
     </row>
@@ -3778,13 +3746,13 @@
       <c r="E23" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23">
         <v>2</v>
       </c>
     </row>
@@ -3798,13 +3766,13 @@
       <c r="E24" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <v>3</v>
       </c>
     </row>
@@ -3818,13 +3786,13 @@
       <c r="E25" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25">
         <v>1</v>
       </c>
     </row>
@@ -3838,13 +3806,13 @@
       <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26">
         <v>1</v>
       </c>
     </row>
@@ -3858,13 +3826,13 @@
       <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
@@ -3878,13 +3846,13 @@
       <c r="E28" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28">
         <v>1</v>
       </c>
     </row>
@@ -3898,13 +3866,13 @@
       <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
@@ -3918,13 +3886,13 @@
       <c r="E30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30">
         <v>1</v>
       </c>
     </row>
@@ -3938,13 +3906,13 @@
       <c r="E31" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31">
         <v>1</v>
       </c>
     </row>
@@ -3958,13 +3926,13 @@
       <c r="E32" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32">
         <v>2</v>
       </c>
     </row>
@@ -3978,13 +3946,13 @@
       <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33">
         <v>1</v>
       </c>
     </row>
@@ -3998,13 +3966,13 @@
       <c r="E34" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>3</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34">
         <v>1</v>
       </c>
     </row>
@@ -4018,13 +3986,13 @@
       <c r="E35" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35">
         <v>2</v>
       </c>
     </row>
@@ -4038,13 +4006,13 @@
       <c r="E36" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36">
         <v>1</v>
       </c>
     </row>
@@ -4058,13 +4026,13 @@
       <c r="E37" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37">
         <v>1</v>
       </c>
     </row>
@@ -4078,13 +4046,13 @@
       <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38">
         <v>1</v>
       </c>
     </row>
@@ -4098,13 +4066,13 @@
       <c r="E39" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39">
         <v>1</v>
       </c>
     </row>
@@ -4118,13 +4086,13 @@
       <c r="E40" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40">
         <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40">
         <v>1</v>
       </c>
     </row>
@@ -4138,13 +4106,13 @@
       <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41">
         <v>1</v>
       </c>
     </row>
@@ -4158,13 +4126,13 @@
       <c r="E42" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42">
         <v>3</v>
       </c>
     </row>
@@ -4178,13 +4146,13 @@
       <c r="E43" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43">
         <v>1</v>
       </c>
     </row>
@@ -4198,13 +4166,13 @@
       <c r="E44" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44">
         <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44">
         <v>1</v>
       </c>
     </row>
@@ -4218,13 +4186,13 @@
       <c r="E45" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45">
         <v>1</v>
       </c>
     </row>
@@ -4238,13 +4206,13 @@
       <c r="E46" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>49</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46">
         <v>1</v>
       </c>
     </row>
@@ -4258,13 +4226,13 @@
       <c r="E47" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47">
         <v>1</v>
       </c>
     </row>
@@ -4278,13 +4246,13 @@
       <c r="E48" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48">
         <v>1</v>
       </c>
     </row>
@@ -4298,13 +4266,13 @@
       <c r="E49" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49">
         <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49">
         <v>1</v>
       </c>
     </row>
@@ -4318,13 +4286,13 @@
       <c r="E50" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>138</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50">
         <v>58</v>
       </c>
     </row>
@@ -4338,7 +4306,7 @@
       <c r="E51" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
@@ -4352,7 +4320,7 @@
       <c r="E52" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52">
         <v>2</v>
       </c>
     </row>
@@ -4366,7 +4334,7 @@
       <c r="E53" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
@@ -4380,7 +4348,7 @@
       <c r="E54" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54">
         <v>1</v>
       </c>
     </row>
@@ -4394,7 +4362,7 @@
       <c r="E55" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55">
         <v>1</v>
       </c>
     </row>
@@ -4408,7 +4376,7 @@
       <c r="E56" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56">
         <v>7</v>
       </c>
     </row>
@@ -4422,7 +4390,7 @@
       <c r="E57" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57">
         <v>5</v>
       </c>
     </row>
@@ -4436,7 +4404,7 @@
       <c r="E58" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58">
         <v>2</v>
       </c>
     </row>
@@ -4450,7 +4418,7 @@
       <c r="E59" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
@@ -4464,7 +4432,7 @@
       <c r="E60" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60">
         <v>2</v>
       </c>
     </row>
@@ -4475,7 +4443,7 @@
       <c r="E61" t="s">
         <v>112</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
@@ -4486,7 +4454,7 @@
       <c r="E62" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62">
         <v>6</v>
       </c>
     </row>
@@ -4497,7 +4465,7 @@
       <c r="E63" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63">
         <v>1</v>
       </c>
     </row>
@@ -4508,7 +4476,7 @@
       <c r="E64" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64">
         <v>2</v>
       </c>
     </row>
@@ -4519,7 +4487,7 @@
       <c r="E65" t="s">
         <v>65</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65">
         <v>1</v>
       </c>
     </row>
@@ -4530,7 +4498,7 @@
       <c r="E66" t="s">
         <v>114</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66">
         <v>1</v>
       </c>
     </row>
@@ -4541,7 +4509,7 @@
       <c r="E67" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67">
         <v>7</v>
       </c>
     </row>
@@ -4552,7 +4520,7 @@
       <c r="E68" t="s">
         <v>104</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68">
         <v>2</v>
       </c>
     </row>
@@ -4563,7 +4531,7 @@
       <c r="E69" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69">
         <v>5</v>
       </c>
     </row>
@@ -4574,7 +4542,7 @@
       <c r="E70" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70">
         <v>1</v>
       </c>
     </row>
@@ -4585,7 +4553,7 @@
       <c r="E71" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71">
         <v>3</v>
       </c>
     </row>
@@ -4596,7 +4564,7 @@
       <c r="E72" t="s">
         <v>129</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72">
         <v>1</v>
       </c>
     </row>
@@ -4607,7 +4575,7 @@
       <c r="E73" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73">
         <v>138</v>
       </c>
     </row>
